--- a/Daten/forschungsgruppe.xlsx
+++ b/Daten/forschungsgruppe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominiklawetzky/Documents/GitHub/sonntagsfrage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominiklawetzky/Documents/GitHub/sonntagsfrage/Daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210E9747-5673-B44C-99A6-B287A344A957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E299EB-645C-244E-84CB-560C885ECF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20620" yWindow="4020" windowWidth="28040" windowHeight="22860" xr2:uid="{C091443C-707C-7348-B037-DC55784092FD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="194">
   <si>
     <t>SPD</t>
   </si>
@@ -686,7 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -703,6 +703,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1018,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4827543A-EAEE-BE44-8AE4-CD27D1D71FD1}">
-  <dimension ref="A1:L223"/>
+  <dimension ref="A1:L224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,89 +1067,87 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="16">
+        <v>44393</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.15</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
+      </c>
+      <c r="I2">
+        <v>0.08</v>
+      </c>
+      <c r="K2">
+        <v>1224</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>44372</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="11">
+      <c r="B3" s="2"/>
+      <c r="C3" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D3" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E3" s="11">
         <v>0.22</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F3" s="11">
         <v>0.1</v>
       </c>
-      <c r="G2" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H2" s="11">
+      <c r="G3" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H3" s="11">
         <v>0.1</v>
       </c>
-      <c r="I2" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="5">
+      <c r="I3" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="5">
         <v>1271</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>44357</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="12">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.22</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="G3" s="12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0.11</v>
-      </c>
-      <c r="I3" s="13">
-        <v>7</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="8">
-        <v>1232</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
-        <v>44337</v>
+        <v>44357</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="12">
-        <v>0.24</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D4" s="12">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="12">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="F4" s="12">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G4" s="12">
         <v>7.0000000000000007E-2</v>
@@ -1157,66 +1156,66 @@
         <v>0.11</v>
       </c>
       <c r="I4" s="13">
-        <v>8</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="8">
+        <v>1232</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>44337</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="G5" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="8">
         <v>1229</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>44323</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.26</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0.11</v>
-      </c>
-      <c r="I5" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="5">
-        <v>1271</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>44302</v>
+        <v>44323</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="11">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="D6" s="11">
         <v>0.14000000000000001</v>
       </c>
       <c r="E6" s="11">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="F6" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G6" s="11">
         <v>7.0000000000000007E-2</v>
@@ -1229,25 +1228,25 @@
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="5">
-        <v>1292</v>
+        <v>1271</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>44281</v>
+        <v>44302</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
       <c r="D7" s="11">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E7" s="11">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="F7" s="11">
         <v>0.09</v>
@@ -1256,90 +1255,90 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H7" s="11">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I7" s="11">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="5">
-        <v>1030</v>
+        <v>1292</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>44253</v>
+        <v>44281</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="11">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D8" s="11">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E8" s="11">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="F8" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="G8" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H8" s="11">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I8" s="11">
         <v>0.06</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="5">
-        <v>1202</v>
+        <v>1030</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>44224</v>
+        <v>44253</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="11">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="D9" s="11">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E9" s="11">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F9" s="11">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G9" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H9" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I9" s="11">
         <v>0.06</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="5">
-        <v>1371</v>
+        <v>1202</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>44211</v>
+        <v>44224</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="11">
@@ -1352,35 +1351,35 @@
         <v>0.2</v>
       </c>
       <c r="F10" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G10" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H10" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I10" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="5">
-        <v>1262</v>
+        <v>1371</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>44175</v>
+        <v>44211</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="11">
         <v>0.37</v>
       </c>
       <c r="D11" s="11">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E11" s="11">
         <v>0.2</v>
@@ -1395,19 +1394,19 @@
         <v>0.1</v>
       </c>
       <c r="I11" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="5">
-        <v>1246</v>
+        <v>1262</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>44162</v>
+        <v>44175</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="11">
@@ -1417,31 +1416,31 @@
         <v>0.16</v>
       </c>
       <c r="E12" s="11">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="11">
         <v>0.05</v>
       </c>
       <c r="G12" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H12" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I12" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="5">
-        <v>1330</v>
+        <v>1246</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>44148</v>
+        <v>44162</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="11">
@@ -1451,7 +1450,7 @@
         <v>0.16</v>
       </c>
       <c r="E13" s="11">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F13" s="11">
         <v>0.05</v>
@@ -1463,26 +1462,26 @@
         <v>0.09</v>
       </c>
       <c r="I13" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="5">
-        <v>1347</v>
+        <v>1330</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>44127</v>
+        <v>44148</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="11">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="D14" s="11">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E14" s="11">
         <v>0.2</v>
@@ -1491,32 +1490,32 @@
         <v>0.05</v>
       </c>
       <c r="G14" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H14" s="11">
         <v>0.09</v>
       </c>
       <c r="I14" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="5">
-        <v>1297</v>
+        <v>1347</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>44113</v>
+        <v>44127</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="11">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="D15" s="11">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E15" s="11">
         <v>0.2</v>
@@ -1525,35 +1524,35 @@
         <v>0.05</v>
       </c>
       <c r="G15" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H15" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I15" s="11">
         <v>0.05</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="5">
-        <v>1229</v>
+        <v>1297</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>44091</v>
+        <v>44113</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="11">
         <v>0.37</v>
       </c>
       <c r="D16" s="11">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E16" s="11">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F16" s="11">
         <v>0.05</v>
@@ -1569,22 +1568,22 @@
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="5">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>44071</v>
+        <v>44091</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="11">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="D17" s="11">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E17" s="11">
         <v>0.19</v>
@@ -1593,35 +1592,35 @@
         <v>0.05</v>
       </c>
       <c r="G17" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H17" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I17" s="11">
         <v>0.05</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="5">
-        <v>1303</v>
+        <v>1241</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>44043</v>
+        <v>44071</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="11">
         <v>0.38</v>
       </c>
       <c r="D18" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E18" s="11">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="F18" s="11">
         <v>0.05</v>
@@ -1637,31 +1636,31 @@
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="5">
-        <v>1249</v>
+        <v>1303</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>44022</v>
+        <v>44043</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="11">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="D19" s="11">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E19" s="11">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F19" s="11">
         <v>0.05</v>
       </c>
       <c r="G19" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H19" s="11">
         <v>0.09</v>
@@ -1671,25 +1670,25 @@
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="5">
-        <v>1226</v>
+        <v>1249</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>44008</v>
+        <v>44022</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="11">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="D20" s="11">
         <v>0.15</v>
       </c>
       <c r="E20" s="11">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F20" s="11">
         <v>0.05</v>
@@ -1705,28 +1704,28 @@
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="5">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>43994</v>
+        <v>44008</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="11">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="D21" s="11">
         <v>0.15</v>
       </c>
       <c r="E21" s="11">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F21" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G21" s="11">
         <v>7.0000000000000007E-2</v>
@@ -1735,19 +1734,19 @@
         <v>0.09</v>
       </c>
       <c r="I21" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="5">
-        <v>1270</v>
+        <v>1227</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>43980</v>
+        <v>43994</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="11">
@@ -1757,13 +1756,13 @@
         <v>0.15</v>
       </c>
       <c r="E22" s="11">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F22" s="11">
         <v>0.04</v>
       </c>
       <c r="G22" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H22" s="11">
         <v>0.09</v>
@@ -1773,56 +1772,56 @@
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="5">
-        <v>1377</v>
+        <v>1270</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>43966</v>
+        <v>43980</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="11">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="D23" s="11">
         <v>0.15</v>
       </c>
       <c r="E23" s="11">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F23" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G23" s="11">
         <v>0.08</v>
       </c>
       <c r="H23" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I23" s="11">
         <v>0.06</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="5">
-        <v>1282</v>
+        <v>1377</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>43945</v>
+        <v>43966</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="11">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="D24" s="11">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E24" s="11">
         <v>0.18</v>
@@ -1831,35 +1830,35 @@
         <v>0.05</v>
       </c>
       <c r="G24" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H24" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I24" s="11">
         <v>0.06</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="5">
-        <v>1323</v>
+        <v>1282</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>43930</v>
+        <v>43945</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="11">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="D25" s="11">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E25" s="11">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F25" s="11">
         <v>0.05</v>
@@ -1868,38 +1867,38 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H25" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I25" s="11">
         <v>0.06</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="5">
-        <v>1175</v>
+        <v>1323</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>43917</v>
+        <v>43930</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="11">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="D26" s="11">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="E26" s="11">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F26" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G26" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H26" s="11">
         <v>0.1</v>
@@ -1909,25 +1908,25 @@
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="5">
-        <v>1473</v>
+        <v>1175</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>43896</v>
+        <v>43917</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="11">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="D27" s="11">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E27" s="11">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F27" s="11">
         <v>0.06</v>
@@ -1936,38 +1935,38 @@
         <v>0.08</v>
       </c>
       <c r="H27" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I27" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="5">
-        <v>1276</v>
+        <v>1473</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>43868</v>
+        <v>43896</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="11">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="D28" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E28" s="11">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F28" s="11">
         <v>0.06</v>
       </c>
       <c r="G28" s="11">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H28" s="11">
         <v>0.14000000000000001</v>
@@ -1977,15 +1976,15 @@
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="5">
-        <v>1067</v>
+        <v>1276</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>43846</v>
+        <v>43868</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="11">
@@ -1995,44 +1994,44 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E29" s="11">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F29" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="G29" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H29" s="11">
         <v>0.14000000000000001</v>
       </c>
       <c r="I29" s="11">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="5">
-        <v>1282</v>
+        <v>1067</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>43812</v>
+        <v>43846</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="11">
         <v>0.27</v>
       </c>
       <c r="D30" s="11">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E30" s="11">
         <v>0.23</v>
       </c>
       <c r="F30" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G30" s="11">
         <v>0.09</v>
@@ -2045,15 +2044,15 @@
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="5">
-        <v>1366</v>
+        <v>1282</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>43798</v>
+        <v>43812</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="11">
@@ -2066,10 +2065,10 @@
         <v>0.23</v>
       </c>
       <c r="F31" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G31" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H31" s="11">
         <v>0.14000000000000001</v>
@@ -2079,25 +2078,25 @@
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="5">
-        <v>1340</v>
+        <v>1366</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>43777</v>
+        <v>43798</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="11">
         <v>0.27</v>
       </c>
       <c r="D32" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E32" s="11">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F32" s="11">
         <v>7.0000000000000007E-2</v>
@@ -2113,93 +2112,93 @@
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="5">
-        <v>1264</v>
+        <v>1340</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>43756</v>
+        <v>43777</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="D33" s="11">
         <v>0.14000000000000001</v>
       </c>
       <c r="E33" s="11">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="F33" s="11">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G33" s="11">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H33" s="11">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I33" s="11">
         <v>0.06</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="5">
-        <v>1226</v>
+        <v>1264</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>43735</v>
+        <v>43756</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="11">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D34" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="H34" s="11">
         <v>0.13</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="G34" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0.14000000000000001</v>
       </c>
       <c r="I34" s="11">
         <v>0.06</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="5">
-        <v>1325</v>
+        <v>1226</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>43713</v>
+        <v>43735</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="D35" s="11">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E35" s="11">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="F35" s="11">
         <v>0.06</v>
@@ -2208,35 +2207,35 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H35" s="11">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I35" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="5">
-        <v>1270</v>
+        <v>1325</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>43686</v>
+        <v>43713</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="11">
         <v>0.28000000000000003</v>
       </c>
       <c r="D36" s="11">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="E36" s="11">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F36" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="G36" s="11">
         <v>7.0000000000000007E-2</v>
@@ -2249,15 +2248,15 @@
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="5">
-        <v>1307</v>
+        <v>1270</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>43665</v>
+        <v>43686</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="11">
@@ -2270,69 +2269,69 @@
         <v>0.25</v>
       </c>
       <c r="F37" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G37" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="H37">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0.13</v>
       </c>
       <c r="I37" s="11">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="5">
-        <v>1290</v>
+        <v>1307</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>43637</v>
+        <v>43665</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="11">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D38" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E38" s="11">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="F38" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G38" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H38">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I38" s="11">
         <v>0.06</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="5">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>43622</v>
+        <v>43637</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="11">
         <v>0.27</v>
       </c>
       <c r="D39" s="11">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E39" s="11">
         <v>0.26</v>
@@ -2347,100 +2346,100 @@
         <v>0.13</v>
       </c>
       <c r="I39" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="5">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>43595</v>
+        <v>43622</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="11">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="D40" s="11">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="E40" s="11">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="F40" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G40" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H40">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I40" s="11">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="5">
-        <v>1357</v>
+        <v>1297</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>43567</v>
+        <v>43595</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="D41" s="11">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E41" s="11">
         <v>0.2</v>
       </c>
       <c r="F41" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G41" s="11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H41">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I41" s="11">
         <v>0.05</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="5">
-        <v>1282</v>
+        <v>1357</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>43552</v>
+        <v>43567</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="11">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D42" s="11">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="E42" s="11">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F42" s="11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G42" s="11">
         <v>0.09</v>
@@ -2453,124 +2452,124 @@
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="5">
-        <v>1325</v>
+        <v>1282</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>43539</v>
+        <v>43552</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="11">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="D43" s="11">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E43" s="11">
         <v>0.19</v>
       </c>
       <c r="F43" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G43" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H43">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I43" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="5">
-        <v>1290</v>
+        <v>1325</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>43518</v>
+        <v>43539</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="11">
         <v>0.31</v>
       </c>
       <c r="D44" s="11">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E44" s="11">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F44" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G44" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="H44" s="15">
-        <v>0.13</v>
+        <v>0.08</v>
+      </c>
+      <c r="H44">
+        <v>0.12</v>
       </c>
       <c r="I44" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="5">
-        <v>1266</v>
+        <v>1290</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>43504</v>
+        <v>43518</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="11">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="D45" s="11">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E45" s="11">
         <v>0.2</v>
       </c>
       <c r="F45" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G45" s="11">
         <v>0.09</v>
       </c>
       <c r="H45" s="15">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I45" s="11">
         <v>0.05</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="5">
-        <v>1350</v>
+        <v>1266</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>43490</v>
+        <v>43504</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="11">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="D46" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E46" s="11">
         <v>0.2</v>
@@ -2582,32 +2581,32 @@
         <v>0.09</v>
       </c>
       <c r="H46" s="15">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I46" s="11">
         <v>0.05</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="5">
-        <v>1285</v>
+        <v>1350</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>43476</v>
+        <v>43490</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="D47" s="11">
         <v>0.14000000000000001</v>
       </c>
       <c r="E47" s="11">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F47" s="11">
         <v>0.08</v>
@@ -2616,90 +2615,90 @@
         <v>0.09</v>
       </c>
       <c r="H47" s="15">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I47" s="11">
         <v>0.05</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="5">
-        <v>1267</v>
+        <v>1285</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>43448</v>
+        <v>43476</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="11">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D48" s="11">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E48" s="11">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="F48" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G48" s="11">
         <v>0.09</v>
       </c>
       <c r="H48" s="15">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I48" s="11">
         <v>0.05</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="5">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>43427</v>
+        <v>43448</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="11">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="D49" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E49" s="11">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="F49" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G49" s="11">
         <v>0.09</v>
       </c>
       <c r="H49" s="15">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I49" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="5">
-        <v>1336</v>
+        <v>1268</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>43413</v>
+        <v>43427</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="11">
@@ -2712,28 +2711,28 @@
         <v>0.22</v>
       </c>
       <c r="F50" s="11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G50" s="11">
         <v>0.09</v>
       </c>
       <c r="H50" s="15">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="I50" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="5">
-        <v>1200</v>
+        <v>1336</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>43392</v>
+        <v>43413</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="11">
@@ -2743,41 +2742,41 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E51" s="11">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="F51" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G51" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H51" s="15">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I51" s="11">
         <v>0.05</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="5">
-        <v>1117</v>
+        <v>1200</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>43371</v>
+        <v>43392</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="D52" s="11">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E52" s="11">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="F52" s="11">
         <v>0.08</v>
@@ -2789,87 +2788,87 @@
         <v>0.16</v>
       </c>
       <c r="I52" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="5">
-        <v>1260</v>
+        <v>1117</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>43357</v>
+        <v>43371</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="11">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D53" s="11">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="E53" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H53" s="15">
         <v>0.16</v>
-      </c>
-      <c r="F53" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G53" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="H53" s="15">
-        <v>0.15</v>
       </c>
       <c r="I53" s="11">
         <v>0.04</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="5">
-        <v>1339</v>
+        <v>1260</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>43343</v>
+        <v>43357</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="11">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="D54" s="11">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="E54" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F54" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G54" s="11">
         <v>0.08</v>
       </c>
       <c r="H54" s="15">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I54" s="11">
         <v>0.04</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="5">
-        <v>1216</v>
+        <v>1339</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>43322</v>
+        <v>43343</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="11">
@@ -2879,31 +2878,31 @@
         <v>0.18</v>
       </c>
       <c r="E55" s="11">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F55" s="11">
         <v>0.08</v>
       </c>
       <c r="G55" s="11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H55" s="15">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I55" s="11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="5">
-        <v>1294</v>
+        <v>1216</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>43294</v>
+        <v>43322</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="11">
@@ -2913,35 +2912,35 @@
         <v>0.18</v>
       </c>
       <c r="E56" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="F56" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G56" s="11">
-        <v>0.11</v>
-      </c>
-      <c r="H56">
-        <v>0.15</v>
+        <v>0.09</v>
+      </c>
+      <c r="H56" s="15">
+        <v>0.16</v>
       </c>
       <c r="I56" s="11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="5">
-        <v>1340</v>
+        <v>1294</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>43280</v>
+        <v>43294</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="11">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="D57" s="11">
         <v>0.18</v>
@@ -2950,96 +2949,96 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F57" s="11">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G57" s="11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H57">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I57" s="11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="5">
-        <v>1290</v>
+        <v>1340</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>43259</v>
+        <v>43280</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="11">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="D58" s="11">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E58" s="11">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F58" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G58" s="11">
         <v>0.1</v>
       </c>
       <c r="H58">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I58" s="11">
         <v>0.03</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="5">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>43238</v>
+        <v>43259</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="11">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="D59" s="11">
         <v>0.2</v>
       </c>
       <c r="E59" s="11">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F59" s="11">
         <v>0.08</v>
       </c>
       <c r="G59" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H59">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I59" s="11">
         <v>0.03</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="5">
-        <v>1200</v>
+        <v>1284</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>43217</v>
+        <v>43238</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="11">
@@ -3049,81 +3048,81 @@
         <v>0.2</v>
       </c>
       <c r="E60" s="11">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F60" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G60" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H60">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I60" s="11">
         <v>0.03</v>
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="5">
-        <v>1285</v>
+        <v>1200</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>43203</v>
+        <v>43217</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="11">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="D61" s="11">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="E61" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="F61" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G61" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H61">
         <v>0.13</v>
       </c>
       <c r="I61" s="11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="5">
-        <v>1159</v>
+        <v>1285</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>43175</v>
+        <v>43203</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="11">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="D62" s="11">
         <v>0.19</v>
       </c>
       <c r="E62" s="11">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F62" s="11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G62" s="11">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="H62">
         <v>0.13</v>
@@ -3133,62 +3132,62 @@
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="5">
-        <v>1214</v>
+        <v>1159</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>43154</v>
+        <v>43175</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="11">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="D63" s="11">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="E63" s="11">
         <v>0.12</v>
       </c>
       <c r="F63" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G63" s="11">
         <v>0.11</v>
       </c>
       <c r="H63">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I63" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="5">
-        <v>1360</v>
+        <v>1214</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>43133</v>
+        <v>43154</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="11">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="D64" s="11">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E64" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F64" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G64" s="11">
         <v>0.11</v>
@@ -3197,60 +3196,60 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I64" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J64" s="11"/>
       <c r="K64" s="5">
-        <v>1302</v>
+        <v>1360</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>43119</v>
+        <v>43133</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="11">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="D65" s="11">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E65" s="11">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F65" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G65" s="11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H65">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I65" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J65" s="11"/>
       <c r="K65" s="5">
-        <v>1332</v>
+        <v>1302</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>43077</v>
+        <v>43119</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="11">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="D66" s="11">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="E66" s="11">
         <v>0.12</v>
@@ -3259,59 +3258,59 @@
         <v>0.08</v>
       </c>
       <c r="G66" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H66">
         <v>0.12</v>
       </c>
       <c r="I66" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="5">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>43056</v>
+        <v>43077</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="11">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="D67" s="11">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="E67" s="11">
         <v>0.12</v>
       </c>
       <c r="F67" s="11">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G67" s="11">
         <v>0.09</v>
       </c>
       <c r="H67">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I67" s="11">
         <v>0.04</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="5">
-        <v>1303</v>
+        <v>1353</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>43035</v>
+        <v>43056</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="11">
@@ -3321,7 +3320,7 @@
         <v>0.21</v>
       </c>
       <c r="E68" s="11">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F68" s="11">
         <v>0.1</v>
@@ -3330,26 +3329,26 @@
         <v>0.09</v>
       </c>
       <c r="H68">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I68" s="11">
         <v>0.04</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="5">
-        <v>1325</v>
+        <v>1303</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>43021</v>
+        <v>43035</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="11">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="D69" s="11">
         <v>0.21</v>
@@ -3358,10 +3357,10 @@
         <v>0.11</v>
       </c>
       <c r="F69" s="11">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G69" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H69">
         <v>0.12</v>
@@ -3371,19 +3370,19 @@
       </c>
       <c r="J69" s="11"/>
       <c r="K69" s="5">
-        <v>1180</v>
+        <v>1325</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>43007</v>
+        <v>43021</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="11">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="D70" s="11">
         <v>0.21</v>
@@ -3392,7 +3391,7 @@
         <v>0.11</v>
       </c>
       <c r="F70" s="11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G70" s="11">
         <v>0.1</v>
@@ -3405,56 +3404,56 @@
       </c>
       <c r="J70" s="11"/>
       <c r="K70" s="5">
-        <v>1425</v>
+        <v>1180</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>42999</v>
+        <v>43007</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="11">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="D71" s="11">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="E71" s="11">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="F71" s="11">
         <v>0.1</v>
       </c>
       <c r="G71" s="11">
-        <v>8.5000000000000006E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H71">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I71" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="5">
-        <v>1725</v>
+        <v>1425</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>42993</v>
+        <v>42999</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="11">
         <v>0.36</v>
       </c>
       <c r="D72" s="11">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="E72" s="11">
         <v>0.08</v>
@@ -3463,63 +3462,63 @@
         <v>0.1</v>
       </c>
       <c r="G72" s="11">
-        <v>0.09</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H72">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I72" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="5">
-        <v>1383</v>
+        <v>1725</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>42986</v>
+        <v>42993</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="11">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="D73" s="11">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="E73" s="11">
         <v>0.08</v>
       </c>
       <c r="F73" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G73" s="11">
         <v>0.09</v>
       </c>
       <c r="H73">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I73" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J73" s="11"/>
       <c r="K73" s="5">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>42979</v>
+        <v>42986</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="11">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="D74" s="11">
         <v>0.22</v>
@@ -3528,28 +3527,28 @@
         <v>0.08</v>
       </c>
       <c r="F74" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G74" s="11">
         <v>0.09</v>
       </c>
       <c r="H74">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I74" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J74" s="11"/>
       <c r="K74" s="5">
-        <v>1309</v>
+        <v>1378</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>42972</v>
+        <v>42979</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="11">
@@ -3562,62 +3561,62 @@
         <v>0.08</v>
       </c>
       <c r="F75" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G75" s="11">
         <v>0.09</v>
       </c>
       <c r="H75">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I75" s="11">
         <v>0.04</v>
       </c>
       <c r="J75" s="11"/>
       <c r="K75" s="5">
-        <v>1283</v>
+        <v>1309</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>42958</v>
+        <v>42972</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="11">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="D76" s="11">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="E76" s="11">
         <v>0.08</v>
       </c>
       <c r="F76" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G76" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H76">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I76" s="11">
         <v>0.04</v>
       </c>
       <c r="J76" s="11"/>
       <c r="K76" s="5">
-        <v>1352</v>
+        <v>1283</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>42937</v>
+        <v>42958</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="11">
@@ -3643,15 +3642,15 @@
       </c>
       <c r="J77" s="11"/>
       <c r="K77" s="5">
-        <v>1277</v>
+        <v>1352</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>42923</v>
+        <v>42937</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="11">
@@ -3667,32 +3666,32 @@
         <v>0.08</v>
       </c>
       <c r="G78" s="11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H78">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I78" s="11">
         <v>0.04</v>
       </c>
       <c r="J78" s="11"/>
       <c r="K78" s="5">
-        <v>1321</v>
+        <v>1277</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>42909</v>
+        <v>42923</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="11">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="D79" s="11">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E79" s="11">
         <v>0.08</v>
@@ -3711,15 +3710,15 @@
       </c>
       <c r="J79" s="11"/>
       <c r="K79" s="5">
-        <v>1261</v>
+        <v>1321</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>42888</v>
+        <v>42909</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="11">
@@ -3729,7 +3728,7 @@
         <v>0.25</v>
       </c>
       <c r="E80" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F80" s="11">
         <v>0.08</v>
@@ -3738,29 +3737,29 @@
         <v>0.09</v>
       </c>
       <c r="H80">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I80" s="11">
         <v>0.04</v>
       </c>
       <c r="J80" s="11"/>
       <c r="K80" s="5">
-        <v>1301</v>
+        <v>1261</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <v>42874</v>
+        <v>42888</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="11">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="D81" s="11">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="E81" s="11">
         <v>7.0000000000000007E-2</v>
@@ -3772,94 +3771,94 @@
         <v>0.09</v>
       </c>
       <c r="H81">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I81" s="11">
         <v>0.04</v>
       </c>
       <c r="J81" s="11"/>
       <c r="K81" s="5">
-        <v>1344</v>
+        <v>1301</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <v>42853</v>
+        <v>42874</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="11">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="D82" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="E82" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F82" s="11">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G82" s="11">
         <v>0.09</v>
       </c>
       <c r="H82">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I82" s="11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J82" s="11"/>
       <c r="K82" s="5">
-        <v>1328</v>
+        <v>1344</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <v>42832</v>
+        <v>42853</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="11">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="D83" s="11">
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E83" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F83" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G83" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H83">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I83" s="11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J83" s="11"/>
       <c r="K83" s="5">
-        <v>1384</v>
+        <v>1328</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <v>42804</v>
+        <v>42832</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="11">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="D84" s="11">
         <v>0.32</v>
@@ -3877,165 +3876,165 @@
         <v>0.09</v>
       </c>
       <c r="I84" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J84" s="11"/>
       <c r="K84" s="5">
-        <v>1212</v>
+        <v>1384</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <v>42783</v>
+        <v>42804</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="11">
         <v>0.34</v>
       </c>
       <c r="D85" s="11">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="E85" s="11">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F85" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G85" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H85">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I85" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J85" s="11"/>
       <c r="K85" s="5">
-        <v>1231</v>
+        <v>1212</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <v>42762</v>
+        <v>42783</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="11">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="D86" s="11">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="E86" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F86" s="11">
         <v>0.06</v>
       </c>
       <c r="G86" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H86">
         <v>0.1</v>
       </c>
-      <c r="H86">
-        <v>0.11</v>
-      </c>
       <c r="I86" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J86" s="11"/>
       <c r="K86" s="5">
-        <v>1303</v>
+        <v>1231</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
-        <v>42748</v>
+        <v>42762</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="11">
         <v>0.36</v>
       </c>
       <c r="D87" s="11">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="E87" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="F87" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="G87" s="11">
         <v>0.1</v>
       </c>
-      <c r="F87" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="G87" s="11">
-        <v>0.09</v>
-      </c>
       <c r="H87">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I87" s="11">
         <v>0.05</v>
       </c>
       <c r="J87" s="11"/>
       <c r="K87" s="5">
-        <v>1292</v>
+        <v>1303</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <v>42713</v>
+        <v>42748</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="11">
         <v>0.36</v>
       </c>
       <c r="D88" s="11">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E88" s="11">
         <v>0.1</v>
       </c>
       <c r="F88" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G88" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H88">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I88" s="11">
         <v>0.05</v>
       </c>
       <c r="J88" s="11"/>
       <c r="K88" s="5">
-        <v>1234</v>
+        <v>1292</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <v>42699</v>
+        <v>42713</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="11">
         <v>0.36</v>
       </c>
       <c r="D89" s="11">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E89" s="11">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F89" s="11">
         <v>0.05</v>
@@ -4044,32 +4043,32 @@
         <v>0.1</v>
       </c>
       <c r="H89">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I89" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J89" s="11"/>
       <c r="K89" s="5">
-        <v>1258</v>
+        <v>1234</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>42685</v>
+        <v>42699</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="11">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="D90" s="11">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E90" s="11">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F90" s="11">
         <v>0.05</v>
@@ -4078,32 +4077,32 @@
         <v>0.1</v>
       </c>
       <c r="H90">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I90" s="11">
         <v>0.04</v>
       </c>
       <c r="J90" s="11"/>
       <c r="K90" s="5">
-        <v>1276</v>
+        <v>1258</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <v>42671</v>
+        <v>42685</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="11">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="D91" s="11">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="E91" s="11">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F91" s="11">
         <v>0.05</v>
@@ -4115,26 +4114,26 @@
         <v>0.12</v>
       </c>
       <c r="I91" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J91" s="11"/>
       <c r="K91" s="5">
-        <v>1287</v>
+        <v>1276</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <v>42657</v>
+        <v>42671</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="11">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="D92" s="11">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="E92" s="11">
         <v>0.12</v>
@@ -4146,32 +4145,32 @@
         <v>0.1</v>
       </c>
       <c r="H92">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I92" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J92" s="11"/>
       <c r="K92" s="5">
-        <v>1188</v>
+        <v>1287</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
-        <v>42636</v>
+        <v>42657</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="11">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="D93" s="11">
         <v>0.22</v>
       </c>
       <c r="E93" s="11">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F93" s="11">
         <v>0.05</v>
@@ -4187,19 +4186,19 @@
       </c>
       <c r="J93" s="11"/>
       <c r="K93" s="5">
-        <v>1241</v>
+        <v>1188</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
-        <v>42594</v>
+        <v>42636</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="11">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="D94" s="11">
         <v>0.22</v>
@@ -4208,44 +4207,44 @@
         <v>0.13</v>
       </c>
       <c r="F94" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G94" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H94">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I94" s="11">
         <v>0.04</v>
       </c>
       <c r="J94" s="11"/>
       <c r="K94" s="5">
-        <v>1221</v>
+        <v>1241</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
-        <v>42573</v>
+        <v>42594</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="11">
         <v>0.35</v>
       </c>
       <c r="D95" s="11">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="E95" s="11">
         <v>0.13</v>
       </c>
       <c r="F95" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G95" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H95">
         <v>0.11</v>
@@ -4255,31 +4254,31 @@
       </c>
       <c r="J95" s="11"/>
       <c r="K95" s="5">
-        <v>1271</v>
+        <v>1221</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
-        <v>42559</v>
+        <v>42573</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="11">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="D96" s="11">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="E96" s="11">
         <v>0.13</v>
       </c>
       <c r="F96" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G96" s="11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H96">
         <v>0.11</v>
@@ -4289,25 +4288,25 @@
       </c>
       <c r="J96" s="11"/>
       <c r="K96" s="5">
-        <v>1320</v>
+        <v>1271</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
-        <v>42545</v>
+        <v>42559</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="11">
         <v>0.34</v>
       </c>
       <c r="D97" s="11">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="E97" s="11">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F97" s="11">
         <v>0.06</v>
@@ -4316,32 +4315,32 @@
         <v>0.09</v>
       </c>
       <c r="H97">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I97" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J97" s="11"/>
       <c r="K97" s="5">
-        <v>1224</v>
+        <v>1320</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
-        <v>42524</v>
+        <v>42545</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="11">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="D98" s="11">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E98" s="11">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F98" s="11">
         <v>0.06</v>
@@ -4350,22 +4349,22 @@
         <v>0.09</v>
       </c>
       <c r="H98">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I98" s="11">
         <v>0.05</v>
       </c>
       <c r="J98" s="11"/>
       <c r="K98" s="5">
-        <v>1292</v>
+        <v>1224</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
-        <v>42503</v>
+        <v>42524</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="11">
@@ -4375,38 +4374,38 @@
         <v>0.21</v>
       </c>
       <c r="E99" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="F99" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="G99" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H99">
         <v>0.13</v>
       </c>
       <c r="I99" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J99" s="11"/>
       <c r="K99" s="5">
-        <v>1263</v>
+        <v>1292</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
-        <v>42482</v>
+        <v>42503</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="11">
         <v>0.33</v>
       </c>
       <c r="D100" s="11">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E100" s="11">
         <v>0.14000000000000001</v>
@@ -4418,38 +4417,38 @@
         <v>0.08</v>
       </c>
       <c r="H100">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I100" s="11">
         <v>0.04</v>
       </c>
       <c r="J100" s="11"/>
       <c r="K100" s="5">
-        <v>1226</v>
+        <v>1263</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>42468</v>
+        <v>42482</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="11">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="D101" s="11">
         <v>0.22</v>
       </c>
       <c r="E101" s="11">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F101" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G101" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H101">
         <v>0.12</v>
@@ -4459,31 +4458,31 @@
       </c>
       <c r="J101" s="11"/>
       <c r="K101" s="5">
-        <v>1261</v>
+        <v>1226</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
-        <v>42447</v>
+        <v>42468</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="11">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D102" s="11">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="E102" s="11">
         <v>0.12</v>
       </c>
       <c r="F102" s="11">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G102" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H102">
         <v>0.12</v>
@@ -4493,83 +4492,83 @@
       </c>
       <c r="J102" s="11"/>
       <c r="K102" s="5">
-        <v>1205</v>
+        <v>1261</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
-        <v>42419</v>
+        <v>42447</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="11">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="D103" s="11">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="E103" s="11">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F103" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G103" s="11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H103">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I103" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J103" s="11"/>
       <c r="K103" s="5">
-        <v>1289</v>
+        <v>1205</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
-        <v>42398</v>
+        <v>42419</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="11">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="D104" s="11">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E104" s="11">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F104" s="11">
         <v>0.05</v>
       </c>
       <c r="G104" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H104">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I104" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J104" s="11"/>
       <c r="K104" s="5">
-        <v>1380</v>
+        <v>1289</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
-        <v>42384</v>
+        <v>42398</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="11">
@@ -4579,7 +4578,7 @@
         <v>0.24</v>
       </c>
       <c r="E105" s="11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F105" s="11">
         <v>0.05</v>
@@ -4591,23 +4590,23 @@
         <v>0.11</v>
       </c>
       <c r="I105" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J105" s="11"/>
       <c r="K105" s="5">
-        <v>1203</v>
+        <v>1380</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
-        <v>42349</v>
+        <v>42384</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="11">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="D106" s="11">
         <v>0.24</v>
@@ -4616,69 +4615,69 @@
         <v>0.1</v>
       </c>
       <c r="F106" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G106" s="11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H106">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I106" s="11">
         <v>0.05</v>
       </c>
       <c r="J106" s="11"/>
       <c r="K106" s="5">
-        <v>1246</v>
+        <v>1203</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
-        <v>42335</v>
+        <v>42349</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="11">
         <v>0.39</v>
       </c>
       <c r="D107" s="11">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E107" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F107" s="11">
         <v>0.04</v>
       </c>
       <c r="G107" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H107">
         <v>0.09</v>
       </c>
       <c r="I107" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J107" s="11"/>
       <c r="K107" s="5">
         <v>1246</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
-        <v>42321</v>
+        <v>42335</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="11">
         <v>0.39</v>
       </c>
       <c r="D108" s="11">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E108" s="11">
         <v>0.09</v>
@@ -4687,72 +4686,72 @@
         <v>0.04</v>
       </c>
       <c r="G108" s="11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H108">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I108" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J108" s="11"/>
       <c r="K108" s="5">
-        <v>1262</v>
+        <v>1246</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
-        <v>42300</v>
+        <v>42321</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="11">
         <v>0.39</v>
       </c>
       <c r="D109" s="11">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="E109" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F109" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G109" s="11">
         <v>0.09</v>
       </c>
       <c r="H109">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I109" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J109" s="11"/>
       <c r="K109" s="5">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
-        <v>42286</v>
+        <v>42300</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="11">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="D110" s="11">
         <v>0.25</v>
       </c>
       <c r="E110" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F110" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G110" s="11">
         <v>0.09</v>
@@ -4765,25 +4764,25 @@
       </c>
       <c r="J110" s="11"/>
       <c r="K110" s="5">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
-        <v>42272</v>
+        <v>42286</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="11">
         <v>0.41</v>
       </c>
       <c r="D111" s="11">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E111" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F111" s="11">
         <v>0.04</v>
@@ -4792,26 +4791,26 @@
         <v>0.09</v>
       </c>
       <c r="H111">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I111" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J111" s="11"/>
       <c r="K111" s="5">
-        <v>1252</v>
+        <v>1268</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>42258</v>
+        <v>42272</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="11">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="D112" s="11">
         <v>0.26</v>
@@ -4823,25 +4822,25 @@
         <v>0.04</v>
       </c>
       <c r="G112" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H112">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I112" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J112" s="11"/>
       <c r="K112" s="5">
-        <v>1352</v>
+        <v>1252</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
-        <v>42237</v>
+        <v>42258</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="11">
@@ -4857,35 +4856,35 @@
         <v>0.04</v>
       </c>
       <c r="G113" s="11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H113">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I113" s="11">
         <v>0.06</v>
       </c>
       <c r="J113" s="11"/>
       <c r="K113" s="5">
-        <v>1251</v>
+        <v>1352</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
-        <v>42209</v>
+        <v>42237</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="11">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="D114" s="11">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="E114" s="11">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F114" s="11">
         <v>0.04</v>
@@ -4894,29 +4893,29 @@
         <v>0.09</v>
       </c>
       <c r="H114">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I114" s="11">
         <v>0.06</v>
       </c>
       <c r="J114" s="11"/>
       <c r="K114" s="5">
-        <v>1304</v>
+        <v>1251</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
-        <v>42188</v>
+        <v>42209</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="11">
         <v>0.41</v>
       </c>
       <c r="D115" s="11">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E115" s="11">
         <v>0.11</v>
@@ -4931,26 +4930,26 @@
         <v>0.04</v>
       </c>
       <c r="I115" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J115" s="11"/>
       <c r="K115" s="5">
-        <v>1234</v>
+        <v>1304</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
-        <v>42167</v>
+        <v>42188</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="11">
         <v>0.41</v>
       </c>
       <c r="D116" s="11">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="E116" s="11">
         <v>0.11</v>
@@ -4959,7 +4958,7 @@
         <v>0.04</v>
       </c>
       <c r="G116" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H116">
         <v>0.04</v>
@@ -4969,22 +4968,22 @@
       </c>
       <c r="J116" s="11"/>
       <c r="K116" s="5">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
-        <v>42146</v>
+        <v>42167</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="11">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="D117" s="11">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E117" s="11">
         <v>0.11</v>
@@ -4993,10 +4992,10 @@
         <v>0.04</v>
       </c>
       <c r="G117" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H117">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I117" s="11">
         <v>0.05</v>
@@ -5006,56 +5005,56 @@
         <v>1230</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
-        <v>42111</v>
+        <v>42146</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="11">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="D118" s="11">
         <v>0.26</v>
       </c>
       <c r="E118" s="11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F118" s="11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G118" s="11">
         <v>0.09</v>
       </c>
       <c r="H118">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I118" s="11">
         <v>0.05</v>
       </c>
       <c r="J118" s="11"/>
       <c r="K118" s="5">
-        <v>1224</v>
+        <v>1230</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
-        <v>42090</v>
+        <v>42111</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="11">
         <v>0.41</v>
       </c>
       <c r="D119" s="11">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="E119" s="11">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F119" s="11">
         <v>0.03</v>
@@ -5071,25 +5070,25 @@
       </c>
       <c r="J119" s="11"/>
       <c r="K119" s="5">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
-        <v>42076</v>
+        <v>42090</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="11">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="D120" s="11">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E120" s="11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F120" s="11">
         <v>0.03</v>
@@ -5105,49 +5104,49 @@
       </c>
       <c r="J120" s="11"/>
       <c r="K120" s="5">
-        <v>1266</v>
+        <v>1219</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
-        <v>42062</v>
+        <v>42076</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="11">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="D121" s="11">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E121" s="11">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F121" s="11">
         <v>0.03</v>
       </c>
       <c r="G121" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H121">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="I121" s="11">
         <v>0.05</v>
       </c>
       <c r="J121" s="11"/>
       <c r="K121" s="5">
-        <v>1154</v>
+        <v>1266</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
-        <v>42034</v>
+        <v>42062</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="11">
@@ -5157,7 +5156,7 @@
         <v>0.25</v>
       </c>
       <c r="E122" s="11">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F122" s="11">
         <v>0.03</v>
@@ -5166,32 +5165,32 @@
         <v>0.08</v>
       </c>
       <c r="H122">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I122" s="11">
         <v>0.05</v>
       </c>
       <c r="J122" s="11"/>
       <c r="K122" s="5">
-        <v>1258</v>
+        <v>1154</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>42020</v>
+        <v>42034</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="11">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="D123" s="11">
         <v>0.25</v>
       </c>
       <c r="E123" s="11">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F123" s="11">
         <v>0.03</v>
@@ -5207,15 +5206,15 @@
       </c>
       <c r="J123" s="11"/>
       <c r="K123" s="5">
-        <v>1287</v>
+        <v>1258</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <v>41985</v>
+        <v>42020</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="11">
@@ -5225,10 +5224,10 @@
         <v>0.25</v>
       </c>
       <c r="E124" s="11">
-        <v>0.12</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>126</v>
+        <v>0.11</v>
+      </c>
+      <c r="F124" s="11">
+        <v>0.03</v>
       </c>
       <c r="G124" s="11">
         <v>0.08</v>
@@ -5237,29 +5236,29 @@
         <v>0.06</v>
       </c>
       <c r="I124" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J124" s="11"/>
       <c r="K124" s="5">
-        <v>1269</v>
+        <v>1287</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
-        <v>41971</v>
+        <v>41985</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="11">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="D125" s="11">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E125" s="11">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F125" s="11" t="s">
         <v>126</v>
@@ -5271,19 +5270,19 @@
         <v>0.06</v>
       </c>
       <c r="I125" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J125" s="11"/>
       <c r="K125" s="5">
-        <v>1289</v>
+        <v>1269</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
-        <v>41957</v>
+        <v>41971</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="11">
@@ -5293,7 +5292,7 @@
         <v>0.26</v>
       </c>
       <c r="E126" s="11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>126</v>
@@ -5302,22 +5301,22 @@
         <v>0.08</v>
       </c>
       <c r="H126">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="I126" s="11">
         <v>0.08</v>
       </c>
       <c r="J126" s="11"/>
       <c r="K126" s="5">
-        <v>1242</v>
+        <v>1289</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
-        <v>41936</v>
+        <v>41957</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="11">
@@ -5327,10 +5326,10 @@
         <v>0.26</v>
       </c>
       <c r="E127" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="F127" s="11">
-        <v>0.03</v>
+        <v>0.1</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="G127" s="11">
         <v>0.08</v>
@@ -5339,26 +5338,26 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I127" s="11">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J127" s="11"/>
       <c r="K127" s="5">
-        <v>1268</v>
+        <v>1242</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
-        <v>41922</v>
+        <v>41936</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="11">
         <v>0.41</v>
       </c>
       <c r="D128" s="11">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="E128" s="11">
         <v>0.09</v>
@@ -5370,29 +5369,29 @@
         <v>0.08</v>
       </c>
       <c r="H128">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I128" s="11">
         <v>0.06</v>
       </c>
       <c r="J128" s="11"/>
       <c r="K128" s="5">
-        <v>1379</v>
+        <v>1268</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
-        <v>41908</v>
+        <v>41922</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="11">
         <v>0.41</v>
       </c>
       <c r="D129" s="11">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E129" s="11">
         <v>0.09</v>
@@ -5404,29 +5403,29 @@
         <v>0.08</v>
       </c>
       <c r="H129">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I129" s="11">
         <v>0.06</v>
       </c>
       <c r="J129" s="11"/>
       <c r="K129" s="5">
-        <v>1184</v>
+        <v>1379</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
-        <v>41887</v>
+        <v>41908</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="11">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="D130" s="11">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="E130" s="11">
         <v>0.09</v>
@@ -5435,100 +5434,100 @@
         <v>0.03</v>
       </c>
       <c r="G130" s="11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H130">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I130" s="11">
         <v>0.06</v>
       </c>
       <c r="J130" s="11"/>
       <c r="K130" s="5">
-        <v>1179</v>
+        <v>1184</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
-        <v>41873</v>
+        <v>41887</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="11">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="D131" s="11">
         <v>0.25</v>
       </c>
       <c r="E131" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F131" s="11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G131" s="11">
         <v>0.09</v>
       </c>
       <c r="H131">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I131" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="J131" s="11"/>
       <c r="K131" s="5">
-        <v>1264</v>
+        <v>1179</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
-        <v>41838</v>
+        <v>41873</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="11">
         <v>0.41</v>
       </c>
       <c r="D132" s="11">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E132" s="11">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F132" s="11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G132" s="11">
         <v>0.09</v>
       </c>
       <c r="H132">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I132" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J132" s="11"/>
       <c r="K132" s="5">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
-        <v>41817</v>
+        <v>41838</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="11">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="D133" s="11">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E133" s="11">
         <v>0.11</v>
@@ -5540,29 +5539,29 @@
         <v>0.09</v>
       </c>
       <c r="H133">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I133" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J133" s="11"/>
       <c r="K133" s="5">
-        <v>1315</v>
+        <v>1273</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>41795</v>
+        <v>41817</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="11">
         <v>0.39</v>
       </c>
       <c r="D134" s="11">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E134" s="11">
         <v>0.11</v>
@@ -5574,66 +5573,66 @@
         <v>0.09</v>
       </c>
       <c r="H134">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I134" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J134" s="11"/>
       <c r="K134" s="5">
-        <v>1215</v>
+        <v>1315</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
-        <v>41768</v>
+        <v>41795</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="11">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="D135" s="11">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="E135" s="11">
         <v>0.11</v>
       </c>
       <c r="F135" s="11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G135" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H135">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I135" s="11">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J135" s="11"/>
       <c r="K135" s="5">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
-        <v>41740</v>
+        <v>41768</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="11">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="D136" s="11">
         <v>0.25</v>
       </c>
       <c r="E136" s="11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F136" s="11">
         <v>0.04</v>
@@ -5649,15 +5648,15 @@
       </c>
       <c r="J136" s="11"/>
       <c r="K136" s="5">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
-        <v>41726</v>
+        <v>41740</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="11">
@@ -5670,28 +5669,28 @@
         <v>0.1</v>
       </c>
       <c r="F137" s="11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G137" s="11">
         <v>0.1</v>
       </c>
       <c r="H137">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I137" s="11">
         <v>0.06</v>
       </c>
       <c r="J137" s="11"/>
       <c r="K137" s="5">
-        <v>1255</v>
+        <v>1226</v>
       </c>
       <c r="L137" s="6" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
-        <v>41712</v>
+        <v>41726</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="11">
@@ -5704,35 +5703,35 @@
         <v>0.1</v>
       </c>
       <c r="F138" s="11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G138" s="11">
         <v>0.1</v>
       </c>
       <c r="H138">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I138" s="11">
         <v>0.06</v>
       </c>
       <c r="J138" s="11"/>
       <c r="K138" s="5">
-        <v>1284</v>
+        <v>1255</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
-        <v>41691</v>
+        <v>41712</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="11">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="D139" s="11">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E139" s="11">
         <v>0.1</v>
@@ -5747,26 +5746,26 @@
         <v>0.04</v>
       </c>
       <c r="I139" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J139" s="11"/>
       <c r="K139" s="5">
-        <v>1219</v>
+        <v>1284</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
-        <v>41670</v>
+        <v>41691</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="11">
         <v>0.43</v>
       </c>
       <c r="D140" s="11">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E140" s="11">
         <v>0.1</v>
@@ -5775,7 +5774,7 @@
         <v>0.04</v>
       </c>
       <c r="G140" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H140">
         <v>0.04</v>
@@ -5785,56 +5784,56 @@
       </c>
       <c r="J140" s="11"/>
       <c r="K140" s="5">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
-        <v>41656</v>
+        <v>41670</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="11">
         <v>0.43</v>
       </c>
       <c r="D141" s="11">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E141" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F141" s="11">
         <v>0.04</v>
       </c>
       <c r="G141" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H141">
         <v>0.04</v>
       </c>
       <c r="I141" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J141" s="11"/>
       <c r="K141" s="5">
-        <v>1237</v>
+        <v>1208</v>
       </c>
       <c r="L141" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
-        <v>41621</v>
+        <v>41656</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="11">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="D142" s="11">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E142" s="11">
         <v>0.09</v>
@@ -5853,49 +5852,49 @@
       </c>
       <c r="J142" s="11"/>
       <c r="K142" s="5">
-        <v>1255</v>
+        <v>1237</v>
       </c>
       <c r="L142" s="6" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
-        <v>41607</v>
+        <v>41621</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="11">
         <v>0.42</v>
       </c>
       <c r="D143" s="11">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E143" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F143" s="11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G143" s="11">
         <v>0.1</v>
       </c>
       <c r="H143">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I143" s="11">
         <v>0.06</v>
       </c>
       <c r="J143" s="11"/>
       <c r="K143" s="5">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
-        <v>41586</v>
+        <v>41607</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="11">
@@ -5905,13 +5904,13 @@
         <v>0.26</v>
       </c>
       <c r="E144" s="11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F144" s="11">
         <v>0.03</v>
       </c>
       <c r="G144" s="11">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H144">
         <v>0.05</v>
@@ -5921,165 +5920,163 @@
       </c>
       <c r="J144" s="11"/>
       <c r="K144" s="5">
+        <v>1270</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>41586</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="D145" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="E145" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="F145" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="G145" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="H145">
+        <v>0.05</v>
+      </c>
+      <c r="I145" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="J145" s="11"/>
+      <c r="K145" s="5">
         <v>1288</v>
       </c>
-      <c r="L144" s="6" t="s">
+      <c r="L145" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="10">
+    <row r="146" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="10">
         <v>41565</v>
       </c>
-      <c r="B145" s="7"/>
-      <c r="C145" s="12">
+      <c r="B146" s="7"/>
+      <c r="C146" s="12">
         <v>0.42</v>
       </c>
-      <c r="D145" s="12">
+      <c r="D146" s="12">
         <v>0.26</v>
       </c>
-      <c r="E145" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="F145" s="12">
+      <c r="E146" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="F146" s="12">
         <v>0.03</v>
       </c>
-      <c r="G145" s="12">
+      <c r="G146" s="12">
         <v>0.1</v>
       </c>
-      <c r="H145">
-        <v>0.05</v>
-      </c>
-      <c r="I145" s="14">
-        <v>0.06</v>
-      </c>
-      <c r="J145" s="12"/>
-      <c r="K145" s="8">
+      <c r="H146">
+        <v>0.05</v>
+      </c>
+      <c r="I146" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="J146" s="12"/>
+      <c r="K146" s="8">
         <v>1183</v>
       </c>
-      <c r="L145" s="9" t="s">
+      <c r="L146" s="9" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
-        <v>41544</v>
-      </c>
-      <c r="B146" s="2"/>
-      <c r="C146" s="11">
-        <v>0.43</v>
-      </c>
-      <c r="D146" s="11">
-        <v>0.26</v>
-      </c>
-      <c r="E146" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F146" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="G146" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H146">
-        <v>0.05</v>
-      </c>
-      <c r="I146" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="J146" s="11"/>
-      <c r="K146" s="5">
-        <v>1293</v>
-      </c>
-      <c r="L146" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
-        <v>41536</v>
+        <v>41544</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="11">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="D147" s="11">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="E147" s="11">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F147" s="11">
-        <v>5.5E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G147" s="11">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H147" s="11">
-        <v>0.04</v>
+        <v>0.1</v>
+      </c>
+      <c r="H147">
+        <v>0.05</v>
       </c>
       <c r="I147" s="11">
         <v>0.06</v>
       </c>
-      <c r="J147" s="11" t="s">
-        <v>126</v>
-      </c>
+      <c r="J147" s="11"/>
       <c r="K147" s="5">
-        <v>1369</v>
+        <v>1293</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
-        <v>41530</v>
+        <v>41536</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="11">
         <v>0.4</v>
       </c>
       <c r="D148" s="11">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="E148" s="11">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F148" s="11">
-        <v>0.06</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G148" s="11">
-        <v>0.08</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H148" s="11">
         <v>0.04</v>
       </c>
       <c r="I148" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J148" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K148" s="5">
-        <v>1298</v>
+        <v>1369</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
-        <v>41522</v>
+        <v>41530</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="11">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="D149" s="11">
         <v>0.26</v>
       </c>
       <c r="E149" s="11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F149" s="11">
         <v>0.06</v>
@@ -6088,24 +6085,24 @@
         <v>0.08</v>
       </c>
       <c r="H149" s="11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I149" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J149" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K149" s="5">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
-        <v>41515</v>
+        <v>41522</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="11">
@@ -6115,69 +6112,69 @@
         <v>0.26</v>
       </c>
       <c r="E150" s="11">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F150" s="11">
         <v>0.06</v>
       </c>
       <c r="G150" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H150" s="11">
         <v>0.03</v>
       </c>
       <c r="I150" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J150" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K150" s="5">
-        <v>1358</v>
+        <v>1296</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
-        <v>41509</v>
+        <v>41515</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="11">
         <v>0.41</v>
       </c>
       <c r="D151" s="11">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="E151" s="11">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F151" s="11">
         <v>0.06</v>
       </c>
       <c r="G151" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="H151" s="11" t="s">
-        <v>126</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H151" s="11">
+        <v>0.03</v>
       </c>
       <c r="I151" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J151" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K151" s="5">
-        <v>1287</v>
+        <v>1358</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
-        <v>41502</v>
+        <v>41509</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="11">
@@ -6190,7 +6187,7 @@
         <v>0.13</v>
       </c>
       <c r="F152" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G152" s="11">
         <v>0.08</v>
@@ -6199,67 +6196,67 @@
         <v>126</v>
       </c>
       <c r="I152" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="J152" s="11">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J152" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="K152" s="5">
-        <v>1316</v>
+        <v>1287</v>
       </c>
       <c r="L152" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
-        <v>41488</v>
+        <v>41502</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="11">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="D153" s="11">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="E153" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="F153" s="11">
         <v>0.05</v>
       </c>
       <c r="G153" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H153" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I153" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J153" s="11" t="s">
-        <v>126</v>
+        <v>0.05</v>
+      </c>
+      <c r="J153" s="11">
+        <v>0.03</v>
       </c>
       <c r="K153" s="5">
-        <v>1340</v>
+        <v>1316</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
-        <v>41467</v>
+        <v>41488</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="11">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="D154" s="11">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="E154" s="11">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F154" s="11">
         <v>0.05</v>
@@ -6267,29 +6264,29 @@
       <c r="G154" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H154" s="11">
-        <v>0.03</v>
+      <c r="H154" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="I154" s="11">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J154" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K154" s="5">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
-        <v>41453</v>
+        <v>41467</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="11">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="D155" s="11">
         <v>0.26</v>
@@ -6298,10 +6295,10 @@
         <v>0.13</v>
       </c>
       <c r="F155" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G155" s="11">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H155" s="11">
         <v>0.03</v>
@@ -6313,22 +6310,22 @@
         <v>126</v>
       </c>
       <c r="K155" s="5">
-        <v>1276</v>
+        <v>1338</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>41432</v>
+        <v>41453</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="11">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="D156" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="E156" s="11">
         <v>0.13</v>
@@ -6343,28 +6340,28 @@
         <v>0.03</v>
       </c>
       <c r="I156" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J156" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K156" s="5">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
-        <v>41411</v>
+        <v>41432</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="11">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="D157" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E157" s="11">
         <v>0.13</v>
@@ -6385,25 +6382,25 @@
         <v>126</v>
       </c>
       <c r="K157" s="5">
-        <v>1244</v>
+        <v>1275</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
-        <v>41390</v>
+        <v>41411</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="11">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="D158" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E158" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="F158" s="11">
         <v>0.04</v>
@@ -6415,28 +6412,28 @@
         <v>0.03</v>
       </c>
       <c r="I158" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J158" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K158" s="5">
-        <v>1231</v>
+        <v>1244</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
-        <v>41376</v>
+        <v>41390</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="11">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="D159" s="11">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E159" s="11">
         <v>0.14000000000000001</v>
@@ -6447,32 +6444,32 @@
       <c r="G159" s="11">
         <v>0.06</v>
       </c>
-      <c r="H159" s="11" t="s">
-        <v>126</v>
+      <c r="H159" s="11">
+        <v>0.03</v>
       </c>
       <c r="I159" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J159" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K159" s="5">
-        <v>1302</v>
+        <v>1231</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
-        <v>41355</v>
+        <v>41376</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="11">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="D160" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="E160" s="11">
         <v>0.14000000000000001</v>
@@ -6481,34 +6478,34 @@
         <v>0.04</v>
       </c>
       <c r="G160" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H160" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I160" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="J160" s="11">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J160" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="K160" s="5">
-        <v>1296</v>
+        <v>1302</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
-        <v>41341</v>
+        <v>41355</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="11">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="D161" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E161" s="11">
         <v>0.14000000000000001</v>
@@ -6523,28 +6520,28 @@
         <v>126</v>
       </c>
       <c r="I161" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="J161" s="11" t="s">
-        <v>126</v>
+        <v>0.03</v>
+      </c>
+      <c r="J161" s="11">
+        <v>0.03</v>
       </c>
       <c r="K161" s="5">
-        <v>1345</v>
+        <v>1296</v>
       </c>
       <c r="L161" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
-        <v>41327</v>
+        <v>41341</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="11">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="D162" s="11">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E162" s="11">
         <v>0.14000000000000001</v>
@@ -6553,37 +6550,37 @@
         <v>0.04</v>
       </c>
       <c r="G162" s="11">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H162" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I162" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="J162" s="11">
-        <v>0.02</v>
+        <v>0.06</v>
+      </c>
+      <c r="J162" s="11" t="s">
+        <v>126</v>
       </c>
       <c r="K162" s="5">
-        <v>1298</v>
+        <v>1345</v>
       </c>
       <c r="L162" s="6" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
-        <v>41299</v>
+        <v>41327</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="11">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="D163" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="E163" s="11">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F163" s="11">
         <v>0.04</v>
@@ -6598,25 +6595,25 @@
         <v>0.04</v>
       </c>
       <c r="J163" s="11">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="K163" s="5">
-        <v>1249</v>
+        <v>1298</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
-        <v>41285</v>
+        <v>41299</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="11">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="D164" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E164" s="11">
         <v>0.13</v>
@@ -6637,22 +6634,22 @@
         <v>0.03</v>
       </c>
       <c r="K164" s="5">
-        <v>1358</v>
+        <v>1249</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
-        <v>41257</v>
+        <v>41285</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="11">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="D165" s="11">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E165" s="11">
         <v>0.13</v>
@@ -6661,37 +6658,37 @@
         <v>0.04</v>
       </c>
       <c r="G165" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H165" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I165" s="11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J165" s="11">
         <v>0.03</v>
       </c>
       <c r="K165" s="5">
-        <v>1280</v>
+        <v>1358</v>
       </c>
       <c r="L165" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
-        <v>41243</v>
+        <v>41257</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="11">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="D166" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="E166" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="F166" s="11">
         <v>0.04</v>
@@ -6703,37 +6700,37 @@
         <v>126</v>
       </c>
       <c r="I166" s="11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J166" s="11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="K166" s="5">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="L166" s="6" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <v>41229</v>
+        <v>41243</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="11">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="D167" s="11">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E167" s="11">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F167" s="11">
         <v>0.04</v>
       </c>
       <c r="G167" s="11">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H167" s="11" t="s">
         <v>126</v>
@@ -6745,22 +6742,22 @@
         <v>0.04</v>
       </c>
       <c r="K167" s="5">
-        <v>1262</v>
+        <v>1288</v>
       </c>
       <c r="L167" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
-        <v>41208</v>
+        <v>41229</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="11">
         <v>0.39</v>
       </c>
       <c r="D168" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="E168" s="11">
         <v>0.13</v>
@@ -6775,31 +6772,31 @@
         <v>126</v>
       </c>
       <c r="I168" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J168" s="11">
         <v>0.04</v>
       </c>
       <c r="K168" s="5">
-        <v>1286</v>
+        <v>1262</v>
       </c>
       <c r="L168" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
-        <v>41193</v>
+        <v>41208</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="11">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="D169" s="11">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E169" s="11">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F169" s="11">
         <v>0.04</v>
@@ -6811,31 +6808,31 @@
         <v>126</v>
       </c>
       <c r="I169" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J169" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="K169" s="5">
-        <v>1225</v>
+        <v>1286</v>
       </c>
       <c r="L169" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
-        <v>41180</v>
+        <v>41193</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="11">
         <v>0.38</v>
       </c>
       <c r="D170" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="E170" s="11">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F170" s="11">
         <v>0.04</v>
@@ -6850,25 +6847,25 @@
         <v>0.04</v>
       </c>
       <c r="J170" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K170" s="5">
-        <v>1187</v>
+        <v>1225</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
-        <v>41166</v>
+        <v>41180</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="11">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="D171" s="11">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E171" s="11">
         <v>0.13</v>
@@ -6883,34 +6880,34 @@
         <v>126</v>
       </c>
       <c r="I171" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J171" s="11">
         <v>0.06</v>
       </c>
       <c r="K171" s="5">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="L171" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
-        <v>41145</v>
+        <v>41166</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="11">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="D172" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="E172" s="11">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F172" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G172" s="11">
         <v>0.06</v>
@@ -6925,28 +6922,28 @@
         <v>0.06</v>
       </c>
       <c r="K172" s="5">
-        <v>1154</v>
+        <v>1198</v>
       </c>
       <c r="L172" s="6" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
-        <v>41103</v>
+        <v>41145</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="11">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D173" s="11">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E173" s="11">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F173" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G173" s="11">
         <v>0.06</v>
@@ -6955,37 +6952,37 @@
         <v>126</v>
       </c>
       <c r="I173" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J173" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K173" s="5">
-        <v>1255</v>
+        <v>1154</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
-        <v>41075</v>
+        <v>41103</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="11">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="D174" s="11">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="E174" s="11">
         <v>0.13</v>
       </c>
       <c r="F174" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G174" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H174" s="11" t="s">
         <v>126</v>
@@ -6997,28 +6994,28 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K174" s="5">
-        <v>1232</v>
+        <v>1255</v>
       </c>
       <c r="L174" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
-        <v>41054</v>
+        <v>41075</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="11">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="D175" s="11">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="E175" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="F175" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G175" s="11">
         <v>0.05</v>
@@ -7027,31 +7024,31 @@
         <v>126</v>
       </c>
       <c r="I175" s="11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J175" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K175" s="5">
-        <v>1312</v>
+        <v>1232</v>
       </c>
       <c r="L175" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
-        <v>41045</v>
+        <v>41054</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="11">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D176" s="11">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="E176" s="11">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F176" s="11">
         <v>0.04</v>
@@ -7063,37 +7060,37 @@
         <v>126</v>
       </c>
       <c r="I176" s="11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J176" s="11">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K176" s="5">
-        <v>1053</v>
+        <v>1312</v>
       </c>
       <c r="L176" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
-        <v>41026</v>
+        <v>41045</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="11">
         <v>0.35</v>
       </c>
       <c r="D177" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="E177" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="F177" s="11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G177" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H177" s="11" t="s">
         <v>126</v>
@@ -7105,19 +7102,19 @@
         <v>0.09</v>
       </c>
       <c r="K177" s="5">
-        <v>1254</v>
+        <v>1053</v>
       </c>
       <c r="L177" s="6" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
-        <v>40998</v>
+        <v>41026</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="11">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="D178" s="11">
         <v>0.28999999999999998</v>
@@ -7129,34 +7126,34 @@
         <v>0.03</v>
       </c>
       <c r="G178" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H178" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I178" s="11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J178" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="K178" s="5">
-        <v>1271</v>
+        <v>1254</v>
       </c>
       <c r="L178" s="6" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
-        <v>40977</v>
+        <v>40998</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="11">
         <v>0.36</v>
       </c>
       <c r="D179" s="11">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E179" s="11">
         <v>0.14000000000000001</v>
@@ -7171,28 +7168,28 @@
         <v>126</v>
       </c>
       <c r="I179" s="11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J179" s="11">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="K179" s="5">
-        <v>1246</v>
+        <v>1271</v>
       </c>
       <c r="L179" s="6" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
-        <v>40949</v>
+        <v>40977</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="11">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="D180" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="E180" s="11">
         <v>0.14000000000000001</v>
@@ -7213,25 +7210,25 @@
         <v>0.06</v>
       </c>
       <c r="K180" s="5">
-        <v>1272</v>
+        <v>1246</v>
       </c>
       <c r="L180" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
-        <v>40935</v>
+        <v>40949</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="11">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D181" s="11">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E181" s="11">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F181" s="11">
         <v>0.03</v>
@@ -7243,67 +7240,67 @@
         <v>126</v>
       </c>
       <c r="I181" s="11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J181" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="K181" s="5">
-        <v>1262</v>
+        <v>1272</v>
       </c>
       <c r="L181" s="6" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
-        <v>40921</v>
+        <v>40935</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="11">
         <v>0.36</v>
       </c>
       <c r="D182" s="11">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="E182" s="11">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F182" s="11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G182" s="11">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H182" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I182" s="11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J182" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="K182" s="5">
-        <v>1359</v>
+        <v>1262</v>
       </c>
       <c r="L182" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
-        <v>40893</v>
+        <v>40921</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="11">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="D183" s="11">
         <v>0.31</v>
       </c>
       <c r="E183" s="11">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F183" s="11">
         <v>0.04</v>
@@ -7321,25 +7318,25 @@
         <v>0.04</v>
       </c>
       <c r="K183" s="5">
-        <v>1232</v>
+        <v>1359</v>
       </c>
       <c r="L183" s="6" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
-        <v>40872</v>
+        <v>40893</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="11">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="D184" s="11">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="E184" s="11">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F184" s="11">
         <v>0.04</v>
@@ -7354,70 +7351,70 @@
         <v>0.04</v>
       </c>
       <c r="J184" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="K184" s="5">
-        <v>1276</v>
+        <v>1232</v>
       </c>
       <c r="L184" s="6" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
-        <v>40858</v>
+        <v>40872</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="11">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="D185" s="11">
         <v>0.3</v>
       </c>
       <c r="E185" s="11">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F185" s="11">
         <v>0.04</v>
       </c>
       <c r="G185" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H185" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I185" s="11">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J185" s="11">
         <v>0.05</v>
       </c>
       <c r="K185" s="5">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="L185" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
-        <v>40844</v>
+        <v>40858</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="11">
         <v>0.34</v>
       </c>
       <c r="D186" s="11">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="E186" s="11">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F186" s="11">
         <v>0.04</v>
       </c>
       <c r="G186" s="11">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H186" s="11" t="s">
         <v>126</v>
@@ -7426,25 +7423,25 @@
         <v>0.03</v>
       </c>
       <c r="J186" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K186" s="5">
-        <v>1226</v>
+        <v>1278</v>
       </c>
       <c r="L186" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
-        <v>40830</v>
+        <v>40844</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="11">
         <v>0.34</v>
       </c>
       <c r="D187" s="11">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="E187" s="11">
         <v>0.16</v>
@@ -7459,21 +7456,21 @@
         <v>126</v>
       </c>
       <c r="I187" s="11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J187" s="11">
         <v>0.06</v>
       </c>
       <c r="K187" s="5">
-        <v>1255</v>
+        <v>1226</v>
       </c>
       <c r="L187" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
-        <v>40809</v>
+        <v>40830</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="11">
@@ -7483,7 +7480,7 @@
         <v>0.3</v>
       </c>
       <c r="E188" s="11">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F188" s="11">
         <v>0.04</v>
@@ -7498,18 +7495,18 @@
         <v>0.04</v>
       </c>
       <c r="J188" s="11">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="K188" s="5">
-        <v>1229</v>
+        <v>1255</v>
       </c>
       <c r="L188" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
-        <v>40795</v>
+        <v>40809</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="11">
@@ -7519,7 +7516,7 @@
         <v>0.3</v>
       </c>
       <c r="E189" s="11">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F189" s="11">
         <v>0.04</v>
@@ -7531,28 +7528,28 @@
         <v>126</v>
       </c>
       <c r="I189" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="J189" s="11" t="s">
-        <v>126</v>
+        <v>0.04</v>
+      </c>
+      <c r="J189" s="11">
+        <v>0.04</v>
       </c>
       <c r="K189" s="5">
-        <v>1287</v>
+        <v>1229</v>
       </c>
       <c r="L189" s="6" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
-        <v>40767</v>
+        <v>40795</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="11">
         <v>0.34</v>
       </c>
       <c r="D190" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="E190" s="11">
         <v>0.2</v>
@@ -7561,7 +7558,7 @@
         <v>0.04</v>
       </c>
       <c r="G190" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H190" s="11" t="s">
         <v>126</v>
@@ -7573,25 +7570,25 @@
         <v>126</v>
       </c>
       <c r="K190" s="5">
-        <v>1280</v>
+        <v>1287</v>
       </c>
       <c r="L190" s="6" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
-        <v>40739</v>
+        <v>40767</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="11">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="D191" s="11">
         <v>0.28999999999999998</v>
       </c>
       <c r="E191" s="11">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="F191" s="11">
         <v>0.04</v>
@@ -7603,28 +7600,28 @@
         <v>126</v>
       </c>
       <c r="I191" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J191" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K191" s="5">
-        <v>1273</v>
+        <v>1280</v>
       </c>
       <c r="L191" s="6" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
-        <v>40704</v>
+        <v>40739</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="11">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="D192" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E192" s="11">
         <v>0.22</v>
@@ -7645,15 +7642,15 @@
         <v>126</v>
       </c>
       <c r="K192" s="5">
-        <v>1332</v>
+        <v>1273</v>
       </c>
       <c r="L192" s="6" t="s">
-        <v>5</v>
+        <v>170</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
-        <v>40690</v>
+        <v>40704</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="11">
@@ -7681,25 +7678,25 @@
         <v>126</v>
       </c>
       <c r="K193" s="5">
-        <v>1228</v>
+        <v>1332</v>
       </c>
       <c r="L193" s="6" t="s">
-        <v>171</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
-        <v>40669</v>
+        <v>40690</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="11">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="D194" s="11">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E194" s="11">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F194" s="11">
         <v>0.04</v>
@@ -7717,22 +7714,22 @@
         <v>126</v>
       </c>
       <c r="K194" s="5">
-        <v>1325</v>
+        <v>1228</v>
       </c>
       <c r="L194" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="195" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
-        <v>40648</v>
+        <v>40669</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="11">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="D195" s="11">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="E195" s="11">
         <v>0.23</v>
@@ -7753,67 +7750,67 @@
         <v>126</v>
       </c>
       <c r="K195" s="5">
-        <v>1254</v>
+        <v>1325</v>
       </c>
       <c r="L195" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
-        <v>40634</v>
+        <v>40648</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="11">
         <v>0.34</v>
       </c>
       <c r="D196" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="E196" s="11">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="F196" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G196" s="11">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H196" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I196" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J196" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K196" s="5">
-        <v>1283</v>
+        <v>1254</v>
       </c>
       <c r="L196" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="197" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
-        <v>40599</v>
+        <v>40634</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="11">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="D197" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E197" s="11">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="F197" s="11">
         <v>0.05</v>
       </c>
       <c r="G197" s="11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H197" s="11" t="s">
         <v>126</v>
@@ -7825,25 +7822,25 @@
         <v>126</v>
       </c>
       <c r="K197" s="5">
-        <v>1306</v>
+        <v>1283</v>
       </c>
       <c r="L197" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
-        <v>40585</v>
+        <v>40599</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="11">
         <v>0.36</v>
       </c>
       <c r="D198" s="11">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E198" s="11">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F198" s="11">
         <v>0.05</v>
@@ -7861,15 +7858,15 @@
         <v>126</v>
       </c>
       <c r="K198" s="5">
-        <v>1257</v>
+        <v>1306</v>
       </c>
       <c r="L198" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="199" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
-        <v>40571</v>
+        <v>40585</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="11">
@@ -7879,43 +7876,43 @@
         <v>0.27</v>
       </c>
       <c r="E199" s="11">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F199" s="11">
         <v>0.05</v>
       </c>
       <c r="G199" s="11">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H199" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I199" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J199" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K199" s="5">
-        <v>1336</v>
+        <v>1257</v>
       </c>
       <c r="L199" s="6" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
-        <v>40557</v>
+        <v>40571</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="11">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D200" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="E200" s="11">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F200" s="11">
         <v>0.05</v>
@@ -7933,31 +7930,31 @@
         <v>126</v>
       </c>
       <c r="K200" s="5">
-        <v>1245</v>
+        <v>1336</v>
       </c>
       <c r="L200" s="6" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
-        <v>40529</v>
+        <v>40557</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="11">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="D201" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E201" s="11">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F201" s="11">
         <v>0.05</v>
       </c>
       <c r="G201" s="11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H201" s="11" t="s">
         <v>126</v>
@@ -7969,25 +7966,25 @@
         <v>126</v>
       </c>
       <c r="K201" s="5">
-        <v>1421</v>
+        <v>1245</v>
       </c>
       <c r="L201" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
-        <v>40515</v>
+        <v>40529</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="11">
         <v>0.34</v>
       </c>
       <c r="D202" s="11">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E202" s="11">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F202" s="11">
         <v>0.05</v>
@@ -8005,22 +8002,22 @@
         <v>126</v>
       </c>
       <c r="K202" s="5">
-        <v>1317</v>
+        <v>1421</v>
       </c>
       <c r="L202" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="203" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
-        <v>40494</v>
+        <v>40515</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="11">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="D203" s="11">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="E203" s="11">
         <v>0.2</v>
@@ -8041,22 +8038,22 @@
         <v>126</v>
       </c>
       <c r="K203" s="5">
-        <v>1262</v>
+        <v>1317</v>
       </c>
       <c r="L203" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="204" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
-        <v>40473</v>
+        <v>40494</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="11">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="D204" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E204" s="11">
         <v>0.2</v>
@@ -8077,25 +8074,25 @@
         <v>126</v>
       </c>
       <c r="K204" s="5">
-        <v>1250</v>
+        <v>1262</v>
       </c>
       <c r="L204" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
-        <v>40452</v>
+        <v>40473</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="11">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="D205" s="11">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E205" s="11">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F205" s="11">
         <v>0.05</v>
@@ -8107,21 +8104,21 @@
         <v>126</v>
       </c>
       <c r="I205" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J205" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K205" s="5">
-        <v>1323</v>
+        <v>1250</v>
       </c>
       <c r="L205" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="206" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
-        <v>40445</v>
+        <v>40452</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="11">
@@ -8149,61 +8146,61 @@
         <v>126</v>
       </c>
       <c r="K206" s="5">
-        <v>1227</v>
+        <v>1323</v>
       </c>
       <c r="L206" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
-        <v>40431</v>
+        <v>40445</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="11">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="D207" s="11">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="E207" s="11">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F207" s="11">
         <v>0.05</v>
       </c>
       <c r="G207" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H207" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I207" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J207" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K207" s="5">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="L207" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="208" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
-        <v>40417</v>
+        <v>40431</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="11">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="D208" s="11">
         <v>0.31</v>
       </c>
       <c r="E208" s="11">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F208" s="11">
         <v>0.05</v>
@@ -8221,25 +8218,25 @@
         <v>126</v>
       </c>
       <c r="K208" s="5">
-        <v>1211</v>
+        <v>1221</v>
       </c>
       <c r="L208" s="6" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
     </row>
     <row r="209" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
-        <v>40375</v>
+        <v>40417</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="11">
         <v>0.33</v>
       </c>
       <c r="D209" s="11">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="E209" s="11">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F209" s="11">
         <v>0.05</v>
@@ -8257,22 +8254,22 @@
         <v>126</v>
       </c>
       <c r="K209" s="5">
-        <v>1178</v>
+        <v>1211</v>
       </c>
       <c r="L209" s="6" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
-        <v>40347</v>
+        <v>40375</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="11">
         <v>0.33</v>
       </c>
       <c r="D210" s="11">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="E210" s="11">
         <v>0.15</v>
@@ -8281,7 +8278,7 @@
         <v>0.05</v>
       </c>
       <c r="G210" s="11">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H210" s="11" t="s">
         <v>126</v>
@@ -8293,67 +8290,67 @@
         <v>126</v>
       </c>
       <c r="K210" s="5">
-        <v>1265</v>
+        <v>1178</v>
       </c>
       <c r="L210" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
-        <v>40333</v>
+        <v>40347</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="11">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="D211" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="E211" s="11">
         <v>0.15</v>
       </c>
       <c r="F211" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G211" s="11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H211" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I211" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J211" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K211" s="5">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="L211" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
-        <v>40319</v>
+        <v>40333</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="11">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="D212" s="11">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E212" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="F212" s="11">
         <v>0.06</v>
       </c>
       <c r="G212" s="11">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H212" s="11" t="s">
         <v>126</v>
@@ -8365,55 +8362,55 @@
         <v>126</v>
       </c>
       <c r="K212" s="5">
-        <v>1260</v>
+        <v>1271</v>
       </c>
       <c r="L212" s="6" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
-        <v>40291</v>
+        <v>40319</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="11">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="D213" s="11">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="E213" s="11">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F213" s="11">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G213" s="11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H213" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I213" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J213" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K213" s="5">
-        <v>1203</v>
+        <v>1260</v>
       </c>
       <c r="L213" s="6" t="s">
-        <v>188</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
-        <v>40263</v>
+        <v>40291</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="11">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="D214" s="11">
         <v>0.26</v>
@@ -8422,66 +8419,66 @@
         <v>0.13</v>
       </c>
       <c r="F214" s="11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G214" s="11">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H214" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I214" s="11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="J214" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K214" s="5">
-        <v>1260</v>
+        <v>1203</v>
       </c>
       <c r="L214" s="6" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
-        <v>40249</v>
+        <v>40263</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="11">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D215" s="11">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="E215" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="F215" s="11">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G215" s="11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H215" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I215" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J215" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K215" s="5">
-        <v>1204</v>
+        <v>1260</v>
       </c>
       <c r="L215" s="6" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
-        <v>40235</v>
+        <v>40249</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="11">
@@ -8509,25 +8506,25 @@
         <v>126</v>
       </c>
       <c r="K216" s="5">
-        <v>1324</v>
+        <v>1204</v>
       </c>
       <c r="L216" s="6" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
-        <v>40207</v>
+        <v>40235</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="11">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="D217" s="11">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E217" s="11">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F217" s="11">
         <v>0.1</v>
@@ -8545,31 +8542,31 @@
         <v>126</v>
       </c>
       <c r="K217" s="5">
-        <v>1256</v>
+        <v>1324</v>
       </c>
       <c r="L217" s="6" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
-        <v>40193</v>
+        <v>40207</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="11">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D218" s="11">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="E218" s="11">
         <v>0.12</v>
       </c>
       <c r="F218" s="11">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G218" s="11">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H218" s="11" t="s">
         <v>126</v>
@@ -8584,25 +8581,25 @@
         <v>1256</v>
       </c>
       <c r="L218" s="6" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
-        <v>40158</v>
+        <v>40193</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="11">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D219" s="11">
         <v>0.25</v>
       </c>
       <c r="E219" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="F219" s="11">
         <v>0.11</v>
-      </c>
-      <c r="F219" s="11">
-        <v>0.12</v>
       </c>
       <c r="G219" s="11">
         <v>0.11</v>
@@ -8611,37 +8608,37 @@
         <v>126</v>
       </c>
       <c r="I219" s="11">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J219" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K219" s="5">
-        <v>1221</v>
+        <v>1256</v>
       </c>
       <c r="L219" s="6" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
-        <v>40144</v>
+        <v>40158</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="11">
         <v>0.35</v>
       </c>
       <c r="D220" s="11">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E220" s="11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F220" s="11">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G220" s="11">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H220" s="11" t="s">
         <v>126</v>
@@ -8653,55 +8650,55 @@
         <v>126</v>
       </c>
       <c r="K220" s="5">
-        <v>1253</v>
+        <v>1221</v>
       </c>
       <c r="L220" s="6" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
-        <v>40116</v>
+        <v>40144</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="11">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="D221" s="11">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="E221" s="11">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F221" s="11">
         <v>0.13</v>
       </c>
       <c r="G221" s="11">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H221" s="11" t="s">
         <v>126</v>
       </c>
       <c r="I221" s="11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J221" s="11" t="s">
         <v>126</v>
       </c>
       <c r="K221" s="5">
-        <v>1207</v>
+        <v>1253</v>
       </c>
       <c r="L221" s="6" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
-        <v>40102</v>
+        <v>40116</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="11">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D222" s="11">
         <v>0.22</v>
@@ -8710,7 +8707,7 @@
         <v>0.11</v>
       </c>
       <c r="F222" s="11">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="G222" s="11">
         <v>0.13</v>
@@ -8725,15 +8722,15 @@
         <v>126</v>
       </c>
       <c r="K222" s="5">
-        <v>1298</v>
+        <v>1207</v>
       </c>
       <c r="L222" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="223" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
-        <v>40088</v>
+        <v>40102</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="11">
@@ -8761,9 +8758,45 @@
         <v>126</v>
       </c>
       <c r="K223" s="5">
+        <v>1298</v>
+      </c>
+      <c r="L223" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A224" s="4">
+        <v>40088</v>
+      </c>
+      <c r="B224" s="2"/>
+      <c r="C224" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="D224" s="11">
+        <v>0.22</v>
+      </c>
+      <c r="E224" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="F224" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G224" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="H224" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I224" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="J224" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K224" s="5">
         <v>1326</v>
       </c>
-      <c r="L223" s="6" t="s">
+      <c r="L224" s="6" t="s">
         <v>192</v>
       </c>
     </row>
